--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipF\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="510">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1442,12 +1442,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Average Cost ($/MW-yr)</t>
   </si>
   <si>
@@ -1487,9 +1481,6 @@
     <t>share</t>
   </si>
   <si>
-    <t>cost ($/MW-yr)</t>
-  </si>
-  <si>
     <t>Utilities pay to procure DR services.  They often pay energy service companies (ESCOs),</t>
   </si>
   <si>
@@ -1509,12 +1500,6 @@
   </si>
   <si>
     <t>taken by ESCOs and assign all of the cash flows from utilities to the ultimate DR providers</t>
-  </si>
-  <si>
-    <t>(the "industry" or "consumers" cash flow entities in the EPS).</t>
-  </si>
-  <si>
-    <t>In the EPS, the "industry" cash flow entity encompasses both industrial facilities and</t>
   </si>
   <si>
     <t>commercial buildings, so we calculate accordingly in this spreadsheet.</t>
@@ -1537,6 +1522,42 @@
   <si>
     <t>demand shifting they called upon.</t>
   </si>
+  <si>
+    <t>In the EPS, the "nonenergy industries" cash flow entity encompasses both industrial facilities and</t>
+  </si>
+  <si>
+    <t>(the "nonenergy industries" or "consumers" cash flow entities in the EPS).</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
+  </si>
+  <si>
+    <t>Cost ($/MW)</t>
+  </si>
+  <si>
+    <t>% of DR (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +1566,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2175,7 +2196,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2256,6 +2277,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2313,7 +2338,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2639,7 +2663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2648,12 +2674,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2691,82 +2717,82 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2812,10 @@
   <dimension ref="A1:AM430"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,109 +2846,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="47" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="40"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="42"/>
       <c r="AM1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="35" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="35" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="38" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="48"/>
       <c r="AM2" s="2" t="s">
         <v>11</v>
       </c>
@@ -55591,7 +55617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55603,18 +55631,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="30">
         <f>SUMPRODUCT('Demand Response_States'!E4:E430,'Demand Response_States'!S4:S430)/SUM('Demand Response_States'!S4:S430)</f>
@@ -55627,7 +55655,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="30">
         <f>SUMPRODUCT('Demand Response_States'!F4:F430,'Demand Response_States'!T4:T430)/SUM('Demand Response_States'!T4:T430)</f>
@@ -55640,7 +55668,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B4" s="30">
         <f>SUMPRODUCT('Demand Response_States'!G4:G430,'Demand Response_States'!U4:U430)/SUM('Demand Response_States'!U4:U430)</f>
@@ -55653,22 +55681,22 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" s="30">
         <f>B2</f>
@@ -55681,7 +55709,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" s="30">
         <f>(B3*C3+B4*C4)/SUM(C3:C4)</f>
@@ -55702,19 +55730,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
-        <v>486</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -55728,7 +55756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="B3" s="30">
         <f>Calculations!B11</f>
@@ -55737,11 +55765,64 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B4" s="30">
         <f>Calculations!B10</f>
         <v>52676.668282897401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="30">
+        <f>B$3</f>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="30">
+        <f t="shared" ref="B7:B10" si="0">B$3</f>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
       </c>
     </row>
   </sheetData>
@@ -55754,18 +55835,23 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>509</v>
+      </c>
       <c r="B1" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -55778,20 +55864,68 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="51">
+        <v>500</v>
+      </c>
+      <c r="B3" s="32">
         <f>Calculations!C11</f>
         <v>0.70681798569762366</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B4" s="51">
+        <v>501</v>
+      </c>
+      <c r="B4" s="32">
         <f>Calculations!C10</f>
         <v>0.29279230377378984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B586BD6-C879-44E4-8AAE-17D3F20F0F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1170" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1170" windowWidth="22170" windowHeight="16110"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Demand Response_States'!$A$3:$AN$430</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Demand Response_States'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7375" uniqueCount="563">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1747,11 +1746,14 @@
   <si>
     <t>We use the median cost per MW (rather than a  weighted average) because a few</t>
   </si>
+  <si>
+    <t>India:US GDP per capita adjustment, see InputData/scaling-factors.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1912,11 +1914,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2531,6 +2535,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2605,19 +2622,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2941,27 +2945,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>432</v>
       </c>
@@ -2969,129 +2975,139 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="34">
         <v>0.9143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3.2347480211350491E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3099,7 +3115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3112,145 +3128,145 @@
       <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="60" customWidth="1"/>
-    <col min="10" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="43"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
       <c r="AN1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="44" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="55"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
       <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="31">
         <v>2018</v>
       </c>
@@ -3498,7 +3514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="31">
         <v>2018</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" s="31">
         <v>2018</v>
       </c>
@@ -3750,7 +3766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="31">
         <v>2018</v>
       </c>
@@ -3876,7 +3892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="31">
         <v>2018</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="31">
         <v>2018</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
         <v>2018</v>
       </c>
@@ -4254,7 +4270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
         <v>2018</v>
       </c>
@@ -4380,7 +4396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="31">
         <v>2018</v>
       </c>
@@ -4506,7 +4522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="31">
         <v>2018</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="31">
         <v>2018</v>
       </c>
@@ -4758,7 +4774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="31">
         <v>2018</v>
       </c>
@@ -4884,7 +4900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="31">
         <v>2018</v>
       </c>
@@ -5010,7 +5026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="31">
         <v>2018</v>
       </c>
@@ -5136,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="31">
         <v>2018</v>
       </c>
@@ -5262,7 +5278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="31">
         <v>2018</v>
       </c>
@@ -5388,7 +5404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="31">
         <v>2018</v>
       </c>
@@ -5514,7 +5530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="31">
         <v>2018</v>
       </c>
@@ -5640,7 +5656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
@@ -5766,7 +5782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="31">
         <v>2018</v>
       </c>
@@ -5892,7 +5908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" s="31">
         <v>2018</v>
       </c>
@@ -6018,7 +6034,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="31">
         <v>2018</v>
       </c>
@@ -6144,7 +6160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="31">
         <v>2018</v>
       </c>
@@ -6270,7 +6286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="31">
         <v>2018</v>
       </c>
@@ -6396,7 +6412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" s="31">
         <v>2018</v>
       </c>
@@ -6522,7 +6538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29" s="31">
         <v>2018</v>
       </c>
@@ -6648,7 +6664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A30" s="31">
         <v>2018</v>
       </c>
@@ -6774,7 +6790,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A31" s="31">
         <v>2018</v>
       </c>
@@ -6900,7 +6916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A32" s="31">
         <v>2018</v>
       </c>
@@ -7026,7 +7042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A33" s="31">
         <v>2018</v>
       </c>
@@ -7152,7 +7168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" s="31">
         <v>2018</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A35" s="31">
         <v>2018</v>
       </c>
@@ -7404,7 +7420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A36" s="31">
         <v>2018</v>
       </c>
@@ -7530,7 +7546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A37" s="31">
         <v>2018</v>
       </c>
@@ -7656,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A38" s="31">
         <v>2018</v>
       </c>
@@ -7782,7 +7798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A39" s="31">
         <v>2018</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="31">
         <v>2018</v>
       </c>
@@ -8034,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A41" s="31">
         <v>2018</v>
       </c>
@@ -8160,7 +8176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A42" s="31">
         <v>2018</v>
       </c>
@@ -8286,7 +8302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A43" s="31">
         <v>2018</v>
       </c>
@@ -8412,7 +8428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A44" s="31">
         <v>2018</v>
       </c>
@@ -8538,7 +8554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A45" s="31">
         <v>2018</v>
       </c>
@@ -8664,7 +8680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A46" s="31">
         <v>2018</v>
       </c>
@@ -8790,7 +8806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A47" s="31">
         <v>2018</v>
       </c>
@@ -8916,7 +8932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A48" s="31">
         <v>2018</v>
       </c>
@@ -9042,7 +9058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" s="31">
         <v>2018</v>
       </c>
@@ -9168,7 +9184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" s="31">
         <v>2018</v>
       </c>
@@ -9420,7 +9436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A52" s="31">
         <v>2018</v>
       </c>
@@ -9546,7 +9562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A53" s="31">
         <v>2018</v>
       </c>
@@ -9672,7 +9688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A54" s="31">
         <v>2018</v>
       </c>
@@ -9798,7 +9814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A55" s="31">
         <v>2018</v>
       </c>
@@ -9924,7 +9940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A56" s="31">
         <v>2018</v>
       </c>
@@ -10050,7 +10066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A57" s="31">
         <v>2018</v>
       </c>
@@ -10176,7 +10192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A58" s="31">
         <v>2018</v>
       </c>
@@ -10302,7 +10318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A59" s="31">
         <v>2018</v>
       </c>
@@ -10428,7 +10444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A60" s="31">
         <v>2018</v>
       </c>
@@ -10554,7 +10570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A61" s="31">
         <v>2018</v>
       </c>
@@ -10680,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A62" s="31">
         <v>2018</v>
       </c>
@@ -10806,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A63" s="31">
         <v>2018</v>
       </c>
@@ -10932,7 +10948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A64" s="31">
         <v>2018</v>
       </c>
@@ -11058,7 +11074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A65" s="31">
         <v>2018</v>
       </c>
@@ -11184,7 +11200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A66" s="31">
         <v>2018</v>
       </c>
@@ -11310,7 +11326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A67" s="31">
         <v>2018</v>
       </c>
@@ -11436,7 +11452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A68" s="31">
         <v>2018</v>
       </c>
@@ -11562,7 +11578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A69" s="31">
         <v>2018</v>
       </c>
@@ -11688,7 +11704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A70" s="31">
         <v>2018</v>
       </c>
@@ -11814,7 +11830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A71" s="31">
         <v>2018</v>
       </c>
@@ -11940,7 +11956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A72" s="31">
         <v>2018</v>
       </c>
@@ -12066,7 +12082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A73" s="31">
         <v>2018</v>
       </c>
@@ -12192,7 +12208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A74" s="31">
         <v>2018</v>
       </c>
@@ -12318,7 +12334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="31">
         <v>2018</v>
       </c>
@@ -12444,7 +12460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A76" s="31">
         <v>2018</v>
       </c>
@@ -12570,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A77" s="31">
         <v>2018</v>
       </c>
@@ -12696,7 +12712,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A78" s="31">
         <v>2018</v>
       </c>
@@ -12822,7 +12838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="31">
         <v>2018</v>
       </c>
@@ -12948,7 +12964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A80" s="31">
         <v>2018</v>
       </c>
@@ -13074,7 +13090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A81" s="31">
         <v>2018</v>
       </c>
@@ -13200,7 +13216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A82" s="31">
         <v>2018</v>
       </c>
@@ -13326,7 +13342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A83" s="31">
         <v>2018</v>
       </c>
@@ -13452,7 +13468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A84" s="31">
         <v>2018</v>
       </c>
@@ -13578,7 +13594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A85" s="31">
         <v>2018</v>
       </c>
@@ -13704,7 +13720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A86" s="31">
         <v>2018</v>
       </c>
@@ -13830,7 +13846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A87" s="31">
         <v>2018</v>
       </c>
@@ -13956,7 +13972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A88" s="31">
         <v>2018</v>
       </c>
@@ -14082,7 +14098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A89" s="31">
         <v>2018</v>
       </c>
@@ -14208,7 +14224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A90" s="31">
         <v>2018</v>
       </c>
@@ -14334,7 +14350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A91" s="31">
         <v>2018</v>
       </c>
@@ -14460,7 +14476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A92" s="31">
         <v>2018</v>
       </c>
@@ -14586,7 +14602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A93" s="31">
         <v>2018</v>
       </c>
@@ -14712,7 +14728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A94" s="31">
         <v>2018</v>
       </c>
@@ -14838,7 +14854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A95" s="31">
         <v>2018</v>
       </c>
@@ -14964,7 +14980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A96" s="31">
         <v>2018</v>
       </c>
@@ -15090,7 +15106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A97" s="31">
         <v>2018</v>
       </c>
@@ -15216,7 +15232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A98" s="31">
         <v>2018</v>
       </c>
@@ -15342,7 +15358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A99" s="31">
         <v>2018</v>
       </c>
@@ -15468,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A100" s="31">
         <v>2018</v>
       </c>
@@ -15594,7 +15610,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A101" s="31">
         <v>2018</v>
       </c>
@@ -15720,7 +15736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A102" s="31">
         <v>2018</v>
       </c>
@@ -15846,7 +15862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A103" s="31">
         <v>2018</v>
       </c>
@@ -15972,7 +15988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A104" s="31">
         <v>2018</v>
       </c>
@@ -16098,7 +16114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A105" s="31">
         <v>2018</v>
       </c>
@@ -16224,7 +16240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A106" s="31">
         <v>2018</v>
       </c>
@@ -16350,7 +16366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A107" s="31">
         <v>2018</v>
       </c>
@@ -16476,7 +16492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A108" s="31">
         <v>2018</v>
       </c>
@@ -16602,7 +16618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A109" s="31">
         <v>2018</v>
       </c>
@@ -16728,7 +16744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A110" s="31">
         <v>2018</v>
       </c>
@@ -16854,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A111" s="31">
         <v>2018</v>
       </c>
@@ -16980,7 +16996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A112" s="31">
         <v>2018</v>
       </c>
@@ -17106,7 +17122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A113" s="31">
         <v>2018</v>
       </c>
@@ -17232,7 +17248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A114" s="31">
         <v>2018</v>
       </c>
@@ -17358,7 +17374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A115" s="31">
         <v>2018</v>
       </c>
@@ -17484,7 +17500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A116" s="31">
         <v>2018</v>
       </c>
@@ -17610,7 +17626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A117" s="31">
         <v>2018</v>
       </c>
@@ -17736,7 +17752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A118" s="31">
         <v>2018</v>
       </c>
@@ -17862,7 +17878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A119" s="31">
         <v>2018</v>
       </c>
@@ -17988,7 +18004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A120" s="31">
         <v>2018</v>
       </c>
@@ -18114,7 +18130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A121" s="31">
         <v>2018</v>
       </c>
@@ -18240,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A122" s="31">
         <v>2018</v>
       </c>
@@ -18366,7 +18382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A123" s="31">
         <v>2018</v>
       </c>
@@ -18492,7 +18508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A124" s="31">
         <v>2018</v>
       </c>
@@ -18618,7 +18634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A125" s="31">
         <v>2018</v>
       </c>
@@ -18744,7 +18760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A126" s="31">
         <v>2018</v>
       </c>
@@ -18870,7 +18886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A127" s="31">
         <v>2018</v>
       </c>
@@ -18996,7 +19012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A128" s="31">
         <v>2018</v>
       </c>
@@ -19122,7 +19138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A129" s="31">
         <v>2018</v>
       </c>
@@ -19248,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A130" s="31">
         <v>2018</v>
       </c>
@@ -19374,7 +19390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A131" s="31">
         <v>2018</v>
       </c>
@@ -19500,7 +19516,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A132" s="31">
         <v>2018</v>
       </c>
@@ -19626,7 +19642,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A133" s="31">
         <v>2018</v>
       </c>
@@ -19752,7 +19768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A134" s="31">
         <v>2018</v>
       </c>
@@ -19878,7 +19894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A135" s="31">
         <v>2018</v>
       </c>
@@ -20004,7 +20020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A136" s="31">
         <v>2018</v>
       </c>
@@ -20130,7 +20146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A137" s="31">
         <v>2018</v>
       </c>
@@ -20256,7 +20272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A138" s="31">
         <v>2018</v>
       </c>
@@ -20382,7 +20398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A139" s="31">
         <v>2018</v>
       </c>
@@ -20508,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A140" s="31">
         <v>2018</v>
       </c>
@@ -20634,7 +20650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A141" s="31">
         <v>2018</v>
       </c>
@@ -20760,7 +20776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A142" s="31">
         <v>2018</v>
       </c>
@@ -20886,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A143" s="31">
         <v>2018</v>
       </c>
@@ -21012,7 +21028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A144" s="31">
         <v>2018</v>
       </c>
@@ -21138,7 +21154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A145" s="31">
         <v>2018</v>
       </c>
@@ -21264,7 +21280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A146" s="31">
         <v>2018</v>
       </c>
@@ -21390,7 +21406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A147" s="31">
         <v>2018</v>
       </c>
@@ -21516,7 +21532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A148" s="31">
         <v>2018</v>
       </c>
@@ -21642,7 +21658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A149" s="31">
         <v>2018</v>
       </c>
@@ -21768,7 +21784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A150" s="31">
         <v>2018</v>
       </c>
@@ -21894,7 +21910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A151" s="31">
         <v>2018</v>
       </c>
@@ -22020,7 +22036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A152" s="31">
         <v>2018</v>
       </c>
@@ -22146,7 +22162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A153" s="31">
         <v>2018</v>
       </c>
@@ -22272,7 +22288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A154" s="31">
         <v>2018</v>
       </c>
@@ -22398,7 +22414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A155" s="31">
         <v>2018</v>
       </c>
@@ -22524,7 +22540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A156" s="31">
         <v>2018</v>
       </c>
@@ -22650,7 +22666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A157" s="31">
         <v>2018</v>
       </c>
@@ -22776,7 +22792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A158" s="31">
         <v>2018</v>
       </c>
@@ -22902,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A159" s="31">
         <v>2018</v>
       </c>
@@ -23028,7 +23044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A160" s="31">
         <v>2018</v>
       </c>
@@ -23154,7 +23170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A161" s="31">
         <v>2018</v>
       </c>
@@ -23280,7 +23296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A162" s="31">
         <v>2018</v>
       </c>
@@ -23406,7 +23422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A163" s="31">
         <v>2018</v>
       </c>
@@ -23532,7 +23548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A164" s="31">
         <v>2018</v>
       </c>
@@ -23658,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A165" s="31">
         <v>2018</v>
       </c>
@@ -23784,7 +23800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A166" s="31">
         <v>2018</v>
       </c>
@@ -23910,7 +23926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A167" s="31">
         <v>2018</v>
       </c>
@@ -24036,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A168" s="31">
         <v>2018</v>
       </c>
@@ -24162,7 +24178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A169" s="31">
         <v>2018</v>
       </c>
@@ -24288,7 +24304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A170" s="31">
         <v>2018</v>
       </c>
@@ -24414,7 +24430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A171" s="31">
         <v>2018</v>
       </c>
@@ -24540,7 +24556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A172" s="31">
         <v>2018</v>
       </c>
@@ -24666,7 +24682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A173" s="31">
         <v>2018</v>
       </c>
@@ -24792,7 +24808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A174" s="31">
         <v>2018</v>
       </c>
@@ -24918,7 +24934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A175" s="31">
         <v>2018</v>
       </c>
@@ -25044,7 +25060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A176" s="31">
         <v>2018</v>
       </c>
@@ -25170,7 +25186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A177" s="31">
         <v>2018</v>
       </c>
@@ -25296,7 +25312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A178" s="31">
         <v>2018</v>
       </c>
@@ -25422,7 +25438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A179" s="31">
         <v>2018</v>
       </c>
@@ -25548,7 +25564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A180" s="31">
         <v>2018</v>
       </c>
@@ -25674,7 +25690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A181" s="31">
         <v>2018</v>
       </c>
@@ -25800,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A182" s="31">
         <v>2018</v>
       </c>
@@ -25926,7 +25942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A183" s="31">
         <v>2018</v>
       </c>
@@ -26052,7 +26068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A184" s="31">
         <v>2018</v>
       </c>
@@ -26178,7 +26194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A185" s="31">
         <v>2018</v>
       </c>
@@ -26304,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A186" s="31">
         <v>2018</v>
       </c>
@@ -26430,7 +26446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A187" s="31">
         <v>2018</v>
       </c>
@@ -26556,7 +26572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A188" s="31">
         <v>2018</v>
       </c>
@@ -26682,7 +26698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A189" s="31">
         <v>2018</v>
       </c>
@@ -26808,7 +26824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A190" s="31">
         <v>2018</v>
       </c>
@@ -26934,7 +26950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A191" s="31">
         <v>2018</v>
       </c>
@@ -27060,7 +27076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A192" s="31">
         <v>2018</v>
       </c>
@@ -27186,7 +27202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A193" s="31">
         <v>2018</v>
       </c>
@@ -27312,7 +27328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A194" s="31">
         <v>2018</v>
       </c>
@@ -27438,7 +27454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A195" s="31">
         <v>2018</v>
       </c>
@@ -27564,7 +27580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A196" s="31">
         <v>2018</v>
       </c>
@@ -27690,7 +27706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A197" s="31">
         <v>2018</v>
       </c>
@@ -27816,7 +27832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A198" s="31">
         <v>2018</v>
       </c>
@@ -27942,7 +27958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A199" s="31">
         <v>2018</v>
       </c>
@@ -28068,7 +28084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A200" s="31">
         <v>2018</v>
       </c>
@@ -28194,7 +28210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A201" s="31">
         <v>2018</v>
       </c>
@@ -28320,7 +28336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A202" s="31">
         <v>2018</v>
       </c>
@@ -28446,7 +28462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A203" s="31">
         <v>2018</v>
       </c>
@@ -28572,7 +28588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A204" s="31">
         <v>2018</v>
       </c>
@@ -28698,7 +28714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A205" s="31">
         <v>2018</v>
       </c>
@@ -28824,7 +28840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A206" s="31">
         <v>2018</v>
       </c>
@@ -28950,7 +28966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A207" s="31">
         <v>2018</v>
       </c>
@@ -29076,7 +29092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A208" s="31">
         <v>2018</v>
       </c>
@@ -29202,7 +29218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A209" s="31">
         <v>2018</v>
       </c>
@@ -29328,7 +29344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A210" s="31">
         <v>2018</v>
       </c>
@@ -29454,7 +29470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A211" s="31">
         <v>2018</v>
       </c>
@@ -29580,7 +29596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A212" s="31">
         <v>2018</v>
       </c>
@@ -29706,7 +29722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A213" s="31">
         <v>2018</v>
       </c>
@@ -29832,7 +29848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A214" s="31">
         <v>2018</v>
       </c>
@@ -29958,7 +29974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A215" s="31">
         <v>2018</v>
       </c>
@@ -30084,7 +30100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A216" s="31">
         <v>2018</v>
       </c>
@@ -30210,7 +30226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A217" s="31">
         <v>2018</v>
       </c>
@@ -30336,7 +30352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A218" s="31">
         <v>2018</v>
       </c>
@@ -30462,7 +30478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A219" s="31">
         <v>2018</v>
       </c>
@@ -30588,7 +30604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A220" s="31">
         <v>2018</v>
       </c>
@@ -30714,7 +30730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A221" s="31">
         <v>2018</v>
       </c>
@@ -30840,7 +30856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A222" s="31">
         <v>2018</v>
       </c>
@@ -30966,7 +30982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A223" s="31">
         <v>2018</v>
       </c>
@@ -31092,7 +31108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A224" s="31">
         <v>2018</v>
       </c>
@@ -31218,7 +31234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A225" s="31">
         <v>2018</v>
       </c>
@@ -31344,7 +31360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A226" s="31">
         <v>2018</v>
       </c>
@@ -31470,7 +31486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A227" s="31">
         <v>2018</v>
       </c>
@@ -31596,7 +31612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A228" s="31">
         <v>2018</v>
       </c>
@@ -31722,7 +31738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A229" s="31">
         <v>2018</v>
       </c>
@@ -31848,7 +31864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A230" s="31">
         <v>2018</v>
       </c>
@@ -31974,7 +31990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A231" s="31">
         <v>2018</v>
       </c>
@@ -32100,7 +32116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A232" s="31">
         <v>2018</v>
       </c>
@@ -32226,7 +32242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A233" s="31">
         <v>2018</v>
       </c>
@@ -32352,7 +32368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A234" s="31">
         <v>2018</v>
       </c>
@@ -32478,7 +32494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A235" s="31">
         <v>2018</v>
       </c>
@@ -32604,7 +32620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A236" s="31">
         <v>2018</v>
       </c>
@@ -32730,7 +32746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A237" s="31">
         <v>2018</v>
       </c>
@@ -32856,7 +32872,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A238" s="31">
         <v>2018</v>
       </c>
@@ -32982,7 +32998,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A239" s="31">
         <v>2018</v>
       </c>
@@ -33108,7 +33124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A240" s="31">
         <v>2018</v>
       </c>
@@ -33234,7 +33250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A241" s="31">
         <v>2018</v>
       </c>
@@ -33360,7 +33376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A242" s="31">
         <v>2018</v>
       </c>
@@ -33486,7 +33502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A243" s="31">
         <v>2018</v>
       </c>
@@ -33612,7 +33628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A244" s="31">
         <v>2018</v>
       </c>
@@ -33738,7 +33754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A245" s="31">
         <v>2018</v>
       </c>
@@ -33864,7 +33880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A246" s="31">
         <v>2018</v>
       </c>
@@ -33990,7 +34006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A247" s="31">
         <v>2018</v>
       </c>
@@ -34116,7 +34132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A248" s="31">
         <v>2018</v>
       </c>
@@ -34242,7 +34258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A249" s="31">
         <v>2018</v>
       </c>
@@ -34368,7 +34384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A250" s="31">
         <v>2018</v>
       </c>
@@ -34494,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A251" s="31">
         <v>2018</v>
       </c>
@@ -34620,7 +34636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A252" s="31">
         <v>2018</v>
       </c>
@@ -34746,7 +34762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A253" s="31">
         <v>2018</v>
       </c>
@@ -34872,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A254" s="31">
         <v>2018</v>
       </c>
@@ -34998,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A255" s="31">
         <v>2018</v>
       </c>
@@ -35124,7 +35140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A256" s="31">
         <v>2018</v>
       </c>
@@ -35250,7 +35266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A257" s="31">
         <v>2018</v>
       </c>
@@ -35376,7 +35392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A258" s="31">
         <v>2018</v>
       </c>
@@ -35502,7 +35518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A259" s="31">
         <v>2018</v>
       </c>
@@ -35628,7 +35644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A260" s="31">
         <v>2018</v>
       </c>
@@ -35754,7 +35770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A261" s="31">
         <v>2018</v>
       </c>
@@ -35880,7 +35896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A262" s="31">
         <v>2018</v>
       </c>
@@ -36006,7 +36022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A263" s="31">
         <v>2018</v>
       </c>
@@ -36132,7 +36148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A264" s="31">
         <v>2018</v>
       </c>
@@ -36258,7 +36274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A265" s="31">
         <v>2018</v>
       </c>
@@ -36384,7 +36400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A266" s="31">
         <v>2018</v>
       </c>
@@ -36510,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A267" s="31">
         <v>2018</v>
       </c>
@@ -36636,7 +36652,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A268" s="31">
         <v>2018</v>
       </c>
@@ -36762,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A269" s="31">
         <v>2018</v>
       </c>
@@ -36888,7 +36904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A270" s="31">
         <v>2018</v>
       </c>
@@ -37014,7 +37030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A271" s="31">
         <v>2018</v>
       </c>
@@ -37140,7 +37156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A272" s="31">
         <v>2018</v>
       </c>
@@ -37266,7 +37282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A273" s="31">
         <v>2018</v>
       </c>
@@ -37392,7 +37408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A274" s="31">
         <v>2018</v>
       </c>
@@ -37518,7 +37534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A275" s="31">
         <v>2018</v>
       </c>
@@ -37644,7 +37660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A276" s="31">
         <v>2018</v>
       </c>
@@ -37770,7 +37786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A277" s="31">
         <v>2018</v>
       </c>
@@ -37896,7 +37912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A278" s="31">
         <v>2018</v>
       </c>
@@ -38022,7 +38038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A279" s="31">
         <v>2018</v>
       </c>
@@ -38148,7 +38164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A280" s="31">
         <v>2018</v>
       </c>
@@ -38274,7 +38290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A281" s="31">
         <v>2018</v>
       </c>
@@ -38400,7 +38416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A282" s="31">
         <v>2018</v>
       </c>
@@ -38526,7 +38542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A283" s="31">
         <v>2018</v>
       </c>
@@ -38652,7 +38668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A284" s="31">
         <v>2018</v>
       </c>
@@ -38778,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A285" s="31">
         <v>2018</v>
       </c>
@@ -38904,7 +38920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A286" s="31">
         <v>2018</v>
       </c>
@@ -39030,7 +39046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A287" s="31">
         <v>2018</v>
       </c>
@@ -39156,7 +39172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A288" s="31">
         <v>2018</v>
       </c>
@@ -39282,7 +39298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A289" s="31">
         <v>2018</v>
       </c>
@@ -39408,7 +39424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A290" s="31">
         <v>2018</v>
       </c>
@@ -39534,7 +39550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A291" s="31">
         <v>2018</v>
       </c>
@@ -39660,7 +39676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A292" s="31">
         <v>2018</v>
       </c>
@@ -39786,7 +39802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A293" s="31">
         <v>2018</v>
       </c>
@@ -39912,7 +39928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A294" s="31">
         <v>2018</v>
       </c>
@@ -40038,7 +40054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A295" s="31">
         <v>2018</v>
       </c>
@@ -40164,7 +40180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A296" s="31">
         <v>2018</v>
       </c>
@@ -40290,7 +40306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A297" s="31">
         <v>2018</v>
       </c>
@@ -40416,7 +40432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A298" s="31">
         <v>2018</v>
       </c>
@@ -40542,7 +40558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A299" s="31">
         <v>2018</v>
       </c>
@@ -40668,7 +40684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A300" s="31">
         <v>2018</v>
       </c>
@@ -40794,7 +40810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A301" s="31">
         <v>2018</v>
       </c>
@@ -40920,7 +40936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A302" s="31">
         <v>2018</v>
       </c>
@@ -41046,7 +41062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A303" s="31">
         <v>2018</v>
       </c>
@@ -41172,7 +41188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A304" s="31">
         <v>2018</v>
       </c>
@@ -41298,7 +41314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A305" s="31">
         <v>2018</v>
       </c>
@@ -41424,7 +41440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A306" s="31">
         <v>2018</v>
       </c>
@@ -41550,7 +41566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A307" s="31">
         <v>2018</v>
       </c>
@@ -41676,7 +41692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A308" s="31">
         <v>2018</v>
       </c>
@@ -41802,7 +41818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A309" s="31">
         <v>2018</v>
       </c>
@@ -41928,7 +41944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A310" s="31">
         <v>2018</v>
       </c>
@@ -42054,7 +42070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A311" s="31">
         <v>2018</v>
       </c>
@@ -42180,7 +42196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A312" s="31">
         <v>2018</v>
       </c>
@@ -42306,7 +42322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A313" s="31">
         <v>2018</v>
       </c>
@@ -42432,7 +42448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A314" s="31">
         <v>2018</v>
       </c>
@@ -42558,7 +42574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A315" s="31">
         <v>2018</v>
       </c>
@@ -42684,7 +42700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A316" s="31">
         <v>2018</v>
       </c>
@@ -42810,7 +42826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A317" s="31">
         <v>2018</v>
       </c>
@@ -42936,7 +42952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A318" s="31">
         <v>2018</v>
       </c>
@@ -43062,7 +43078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A319" s="31">
         <v>2018</v>
       </c>
@@ -43188,7 +43204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A320" s="31">
         <v>2018</v>
       </c>
@@ -43314,7 +43330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A321" s="31">
         <v>2018</v>
       </c>
@@ -43440,7 +43456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A322" s="31">
         <v>2018</v>
       </c>
@@ -43566,7 +43582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A323" s="31">
         <v>2018</v>
       </c>
@@ -43692,7 +43708,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A324" s="31">
         <v>2018</v>
       </c>
@@ -43818,7 +43834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A325" s="31">
         <v>2018</v>
       </c>
@@ -43944,7 +43960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A326" s="31">
         <v>2018</v>
       </c>
@@ -44070,7 +44086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A327" s="31">
         <v>2018</v>
       </c>
@@ -44196,7 +44212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A328" s="31">
         <v>2018</v>
       </c>
@@ -44322,7 +44338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A329" s="31">
         <v>2018</v>
       </c>
@@ -44448,7 +44464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A330" s="31">
         <v>2018</v>
       </c>
@@ -44574,7 +44590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A331" s="31">
         <v>2018</v>
       </c>
@@ -44700,7 +44716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A332" s="31">
         <v>2018</v>
       </c>
@@ -44826,7 +44842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A333" s="31">
         <v>2018</v>
       </c>
@@ -44952,7 +44968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A334" s="31">
         <v>2018</v>
       </c>
@@ -45078,7 +45094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A335" s="31">
         <v>2018</v>
       </c>
@@ -45204,7 +45220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A336" s="31">
         <v>2018</v>
       </c>
@@ -45330,7 +45346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A337" s="31">
         <v>2018</v>
       </c>
@@ -45456,7 +45472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A338" s="31">
         <v>2018</v>
       </c>
@@ -45582,7 +45598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A339" s="31">
         <v>2018</v>
       </c>
@@ -45708,7 +45724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A340" s="31">
         <v>2018</v>
       </c>
@@ -45834,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A341" s="31">
         <v>2018</v>
       </c>
@@ -45960,7 +45976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A342" s="31">
         <v>2018</v>
       </c>
@@ -46086,7 +46102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A343" s="31">
         <v>2018</v>
       </c>
@@ -46212,7 +46228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A344" s="31">
         <v>2018</v>
       </c>
@@ -46338,7 +46354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A345" s="31">
         <v>2018</v>
       </c>
@@ -46464,7 +46480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A346" s="31">
         <v>2018</v>
       </c>
@@ -46590,7 +46606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A347" s="31">
         <v>2018</v>
       </c>
@@ -46716,7 +46732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A348" s="31">
         <v>2018</v>
       </c>
@@ -46842,7 +46858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A349" s="31">
         <v>2018</v>
       </c>
@@ -46968,7 +46984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A350" s="31">
         <v>2018</v>
       </c>
@@ -47094,7 +47110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A351" s="31">
         <v>2018</v>
       </c>
@@ -47220,7 +47236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A352" s="31">
         <v>2018</v>
       </c>
@@ -47346,7 +47362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A353" s="31">
         <v>2018</v>
       </c>
@@ -47472,7 +47488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A354" s="31">
         <v>2018</v>
       </c>
@@ -47598,7 +47614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A355" s="31">
         <v>2018</v>
       </c>
@@ -47724,7 +47740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A356" s="31">
         <v>2018</v>
       </c>
@@ -47850,7 +47866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A357" s="31">
         <v>2018</v>
       </c>
@@ -47976,7 +47992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A358" s="31">
         <v>2018</v>
       </c>
@@ -48102,7 +48118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A359" s="31">
         <v>2018</v>
       </c>
@@ -48228,7 +48244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A360" s="31">
         <v>2018</v>
       </c>
@@ -48354,7 +48370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A361" s="31">
         <v>2018</v>
       </c>
@@ -48480,7 +48496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A362" s="31">
         <v>2018</v>
       </c>
@@ -48606,7 +48622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A363" s="31">
         <v>2018</v>
       </c>
@@ -48732,7 +48748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A364" s="31">
         <v>2018</v>
       </c>
@@ -48858,7 +48874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A365" s="31">
         <v>2018</v>
       </c>
@@ -48984,7 +49000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A366" s="31">
         <v>2018</v>
       </c>
@@ -49110,7 +49126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A367" s="31">
         <v>2018</v>
       </c>
@@ -49236,7 +49252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A368" s="31">
         <v>2018</v>
       </c>
@@ -49362,7 +49378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A369" s="31">
         <v>2018</v>
       </c>
@@ -49488,7 +49504,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A370" s="31">
         <v>2018</v>
       </c>
@@ -49614,7 +49630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A371" s="31">
         <v>2018</v>
       </c>
@@ -49740,7 +49756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A372" s="31">
         <v>2018</v>
       </c>
@@ -49866,7 +49882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A373" s="31">
         <v>2018</v>
       </c>
@@ -49992,7 +50008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A374" s="31">
         <v>2018</v>
       </c>
@@ -50118,7 +50134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A375" s="31">
         <v>2018</v>
       </c>
@@ -50244,7 +50260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A376" s="31">
         <v>2018</v>
       </c>
@@ -50370,7 +50386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A377" s="31">
         <v>2018</v>
       </c>
@@ -50496,7 +50512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A378" s="31">
         <v>2018</v>
       </c>
@@ -50622,7 +50638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A379" s="31">
         <v>2018</v>
       </c>
@@ -50748,7 +50764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A380" s="31">
         <v>2018</v>
       </c>
@@ -50874,7 +50890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A381" s="31">
         <v>2018</v>
       </c>
@@ -51000,7 +51016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A382" s="31">
         <v>2018</v>
       </c>
@@ -51126,7 +51142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A383" s="31">
         <v>2018</v>
       </c>
@@ -51252,7 +51268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A384" s="31">
         <v>2018</v>
       </c>
@@ -51378,7 +51394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A385" s="31">
         <v>2018</v>
       </c>
@@ -51504,7 +51520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A386" s="31">
         <v>2018</v>
       </c>
@@ -51630,7 +51646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A387" s="31">
         <v>2018</v>
       </c>
@@ -51756,7 +51772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A388" s="31">
         <v>2018</v>
       </c>
@@ -51882,7 +51898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A389" s="31">
         <v>2018</v>
       </c>
@@ -52008,7 +52024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A390" s="31">
         <v>2018</v>
       </c>
@@ -52134,7 +52150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A391" s="31">
         <v>2018</v>
       </c>
@@ -52260,7 +52276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A392" s="31">
         <v>2018</v>
       </c>
@@ -52386,7 +52402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A393" s="31">
         <v>2018</v>
       </c>
@@ -52512,7 +52528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A394" s="31">
         <v>2018</v>
       </c>
@@ -52638,7 +52654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A395" s="31">
         <v>2018</v>
       </c>
@@ -52764,7 +52780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A396" s="31">
         <v>2018</v>
       </c>
@@ -52890,7 +52906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A397" s="31">
         <v>2018</v>
       </c>
@@ -53016,7 +53032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A398" s="31">
         <v>2018</v>
       </c>
@@ -53142,7 +53158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A399" s="31">
         <v>2018</v>
       </c>
@@ -53268,7 +53284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A400" s="31">
         <v>2018</v>
       </c>
@@ -53394,7 +53410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A401" s="31">
         <v>2018</v>
       </c>
@@ -53520,7 +53536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A402" s="31">
         <v>2018</v>
       </c>
@@ -53646,7 +53662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A403" s="31">
         <v>2018</v>
       </c>
@@ -53772,7 +53788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A404" s="31">
         <v>2018</v>
       </c>
@@ -53898,7 +53914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A405" s="31">
         <v>2018</v>
       </c>
@@ -54024,7 +54040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A406" s="31">
         <v>2018</v>
       </c>
@@ -54150,7 +54166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A407" s="31">
         <v>2018</v>
       </c>
@@ -54276,7 +54292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A408" s="31">
         <v>2018</v>
       </c>
@@ -54402,7 +54418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A409" s="31">
         <v>2018</v>
       </c>
@@ -54528,7 +54544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A410" s="31">
         <v>2018</v>
       </c>
@@ -54654,7 +54670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A411" s="31">
         <v>2018</v>
       </c>
@@ -54780,7 +54796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A412" s="31">
         <v>2018</v>
       </c>
@@ -54906,7 +54922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A413" s="31">
         <v>2018</v>
       </c>
@@ -55032,7 +55048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A414" s="31">
         <v>2018</v>
       </c>
@@ -55158,7 +55174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A415" s="31">
         <v>2018</v>
       </c>
@@ -55284,7 +55300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A416" s="31">
         <v>2018</v>
       </c>
@@ -55410,7 +55426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A417" s="31">
         <v>2018</v>
       </c>
@@ -55536,7 +55552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A418" s="31">
         <v>2018</v>
       </c>
@@ -55662,7 +55678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A419" s="31">
         <v>2018</v>
       </c>
@@ -55788,7 +55804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A420" s="31">
         <v>2018</v>
       </c>
@@ -55914,7 +55930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A421" s="31">
         <v>2018</v>
       </c>
@@ -56040,7 +56056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A422" s="31">
         <v>2018</v>
       </c>
@@ -56166,7 +56182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A423" s="31">
         <v>2018</v>
       </c>
@@ -56292,7 +56308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A424" s="31">
         <v>2018</v>
       </c>
@@ -56418,7 +56434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A425" s="31">
         <v>2018</v>
       </c>
@@ -56544,7 +56560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A426" s="31">
         <v>2018</v>
       </c>
@@ -56670,7 +56686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A427" s="31">
         <v>2018</v>
       </c>
@@ -56796,7 +56812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A428" s="31">
         <v>2018</v>
       </c>
@@ -56922,7 +56938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A429" s="31">
         <v>2018</v>
       </c>
@@ -57048,7 +57064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A430" s="31">
         <v>2018</v>
       </c>
@@ -57174,7 +57190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A431" s="31">
         <v>2018</v>
       </c>
@@ -57300,7 +57316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A432" s="31">
         <v>2018</v>
       </c>
@@ -57316,19 +57332,19 @@
       <c r="E432" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="F432" s="61">
+      <c r="F432" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G432" s="62" t="str">
+      <c r="G432" s="37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H432" s="62">
+      <c r="H432" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I432" s="63" t="str">
+      <c r="I432" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -57427,7 +57443,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AN430" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:AN430"/>
   <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J1:AC1"/>
@@ -57447,46 +57463,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>558</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>559</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>557</v>
       </c>
@@ -57494,7 +57510,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>437</v>
       </c>
@@ -57507,7 +57523,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -57520,7 +57536,7 @@
         <v>0.22725360090629559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -57533,22 +57549,22 @@
         <v>0.49636510762259262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -57561,7 +57577,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -57581,53 +57597,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
+        <f>Calculations!B17*About!$A$34*About!$A$37</f>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>462</v>
       </c>
       <c r="B3" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
+        <f>Calculations!B17*About!$A$34*About!$A$37</f>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>463</v>
       </c>
       <c r="B4" s="11">
-        <f>Calculations!B16*About!$A$34</f>
-        <v>37946.092485549132</v>
+        <f>Calculations!B16*About!$A$34*About!$A$37</f>
+        <v>1227.4604757743762</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>464</v>
       </c>
@@ -57635,49 +57653,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>465</v>
       </c>
       <c r="B6" s="11">
         <f>B$3</f>
-        <v>23383.101272803659</v>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>466</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" ref="B7:B10" si="0">B$3</f>
-        <v>23383.101272803659</v>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>467</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>468</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
+        <v>756.38440570202079</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>469</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
+        <v>756.38440570202079</v>
       </c>
     </row>
   </sheetData>
@@ -57686,20 +57704,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -57707,7 +57727,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -57715,25 +57735,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>462</v>
       </c>
       <c r="B3" s="13">
-        <f>Calculations!C17</f>
-        <v>0.72361870852888821</v>
+        <f>Calculations!C17*About!$A$37</f>
+        <v>2.3407241854701211E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>463</v>
       </c>
       <c r="B4" s="13">
-        <f>Calculations!C16</f>
-        <v>0.27639423854992745</v>
+        <f>Calculations!C16*About!$A$37</f>
+        <v>8.9406571620250647E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>464</v>
       </c>
@@ -57741,7 +57761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>465</v>
       </c>
@@ -57749,7 +57769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -57757,7 +57777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -57765,7 +57785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>468</v>
       </c>
@@ -57773,7 +57793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>469</v>
       </c>

--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>3.2347480211350491E-2</v>
+        <v>3.878298458735905E-2</v>
       </c>
     </row>
   </sheetData>
@@ -57624,7 +57624,7 @@
       </c>
       <c r="B2" s="11">
         <f>Calculations!B17*About!$A$34*About!$A$37</f>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -57633,7 +57633,7 @@
       </c>
       <c r="B3" s="11">
         <f>Calculations!B17*About!$A$34*About!$A$37</f>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -57642,7 +57642,7 @@
       </c>
       <c r="B4" s="11">
         <f>Calculations!B16*About!$A$34*About!$A$37</f>
-        <v>1227.4604757743762</v>
+        <v>1471.6627200175531</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -57659,7 +57659,7 @@
       </c>
       <c r="B6" s="11">
         <f>B$3</f>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -57668,7 +57668,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" ref="B7:B10" si="0">B$3</f>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -57677,7 +57677,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -57686,7 +57686,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -57695,7 +57695,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>756.38440570202079</v>
+        <v>906.86645626780012</v>
       </c>
     </row>
   </sheetData>
@@ -57741,7 +57741,7 @@
       </c>
       <c r="B3" s="13">
         <f>Calculations!C17*About!$A$37</f>
-        <v>2.3407241854701211E-2</v>
+        <v>2.8064093220000533E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -57750,7 +57750,7 @@
       </c>
       <c r="B4" s="13">
         <f>Calculations!C16*About!$A$37</f>
-        <v>8.9406571620250647E-3</v>
+        <v>1.0719393493716678E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
